--- a/10a.xlsx
+++ b/10a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E41510-C409-4516-9329-6DD5DAB6C59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542566AB-0D04-426A-AE70-6239574EDF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4057" yWindow="3278" windowWidth="28231" windowHeight="15097" xr2:uid="{CE50552C-6DD6-42F5-855E-DEEF77A41DC7}"/>
   </bookViews>
@@ -346,22 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>λやp が小さく、xやkが大きくなれば、誤差が小さくなる</t>
-    <rPh sb="5" eb="6">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ゴサ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>チイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■ ポアソン分布の確率密度関数</t>
     <rPh sb="6" eb="8">
       <t>ブンプ</t>
@@ -465,6 +449,31 @@
   </si>
   <si>
     <t>8.［OK］をクリックして［データソースの選択］ダイアログボックスを閉じる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※λやp が小さく、xやkが大きくなれば、誤差が小さくなる（例えば、セルB3に0.01、セルB4に100などを指定して試してみるとよい）</t>
+    <rPh sb="6" eb="7">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゴサ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>タメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5994,7 +6003,7 @@
         <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.7">
@@ -6002,7 +6011,7 @@
         <v>9.5</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.7">
@@ -6010,7 +6019,7 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.7">
@@ -6042,7 +6051,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.7">
@@ -7901,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.7">
@@ -7909,7 +7918,7 @@
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.7">
@@ -7917,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.7">
@@ -7925,7 +7934,7 @@
         <v>1.5</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.7">
@@ -7933,7 +7942,7 @@
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.7">
@@ -7941,7 +7950,7 @@
         <v>2.5</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.7">
@@ -7949,7 +7958,7 @@
         <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.7">
@@ -7957,7 +7966,7 @@
         <v>3.5</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.7">
@@ -7965,7 +7974,7 @@
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.7">
@@ -8840,7 +8849,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.7">
@@ -8880,7 +8889,7 @@
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.7">
@@ -8950,7 +8959,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.7">
@@ -8987,7 +8996,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.7">
       <c r="D11" s="10"/>
       <c r="F11" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.7">
@@ -9004,7 +9013,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
